--- a/Nipro-Dialysis.xlsx
+++ b/Nipro-Dialysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16960" windowHeight="14540" activeTab="1"/>
+    <workbookView windowHeight="14540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenarios" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="112">
   <si>
     <t>Project Name</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>P1</t>
+  </si>
+  <si>
+    <t>Validate the "Header"</t>
+  </si>
+  <si>
+    <t>Validate the "Footer"</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Validate the "Sideber"</t>
   </si>
   <si>
     <t>Product Name</t>
@@ -344,10 +356,16 @@
     <t>Should be same  Footer whole website App</t>
   </si>
   <si>
-    <t>1. Goto the URL
-https://app.niprojmidialysis.com/
-2. Click "Sign In" button
-4. Checking Footer Page</t>
+    <t>Check Link conncet another page</t>
+  </si>
+  <si>
+    <t>Should be Connected</t>
+  </si>
+  <si>
+    <t>Not Found as per expectation</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
   <si>
     <t>Sideber</t>
@@ -1305,7 +1323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,14 +1387,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="48" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="48" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1540,12 +1561,16 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="7" tint="0.6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1555,16 +1580,12 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.6"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1842,14 +1863,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="30" topLeftCell="H295" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="29" topLeftCell="H217" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1862,210 +1883,221 @@
   <sheetData>
     <row r="1" ht="15.5" customHeight="1"/>
     <row r="2" ht="26.5" customHeight="1" spans="1:5">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" ht="26.5" customHeight="1" spans="1:5">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:5">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" ht="26.5" customHeight="1" spans="1:5">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:5">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:5">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:5">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="56" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="56">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="55"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="56">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" ht="14.75" spans="1:5">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="55"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-    </row>
-    <row r="15" ht="17" customHeight="1" spans="1:5">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="55"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="1:5">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="55"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="1:5">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="55"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="55"/>
-    </row>
-    <row r="19" ht="23" customHeight="1" spans="1:5">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" ht="35" customHeight="1" spans="1:5">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="55"/>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="1:5">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="55"/>
-    </row>
-    <row r="22" ht="22" customHeight="1" spans="1:5">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="55"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="1:5">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="55"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="1" spans="1:5">
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:5">
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="56"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:5">
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="56"/>
+    </row>
+    <row r="17" ht="21" customHeight="1" spans="1:5">
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="56"/>
+    </row>
+    <row r="18" ht="23" customHeight="1" spans="1:5">
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="56"/>
+    </row>
+    <row r="19" ht="22" customHeight="1" spans="1:5">
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="56"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="1:5">
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="56"/>
+    </row>
+    <row r="21" ht="22" customHeight="1" spans="1:5">
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="56"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="1:5">
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="56"/>
+    </row>
+    <row r="23" ht="22" customHeight="1" spans="1:5">
+      <c r="A23" s="53"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" ht="22" customHeight="1" spans="1:5">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="55"/>
-    </row>
-    <row r="25" ht="22" customHeight="1" spans="1:5">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="55"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2086,14 +2118,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="8" topLeftCell="N9" activePane="bottomRight" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2113,84 +2143,84 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
-      <c r="K1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="29"/>
+      <c r="K1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
-      <c r="K2" s="30" t="s">
-        <v>23</v>
+      <c r="K2" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="L2" s="5">
-        <f>COUNTIF(K9:K66,"Passed")</f>
+        <f>COUNTIF(K9:K67,"Passed")</f>
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="K3" s="31" t="s">
-        <v>27</v>
+      <c r="K3" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="L3" s="5">
-        <f>COUNTIF(K9:K66,"Failed")</f>
-        <v>0</v>
+        <f>COUNTIF(K9:K67,"Failed")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
-      <c r="K4" s="32" t="s">
-        <v>30</v>
+      <c r="K4" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="L4" s="5">
-        <f>COUNTIF(K9:K66,"Not Executed")</f>
+        <f>COUNTIF(K9:K67,"Not Executed")</f>
         <v>1</v>
       </c>
     </row>
@@ -2202,56 +2232,56 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="K5" s="33" t="s">
-        <v>31</v>
+      <c r="K5" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="L5" s="5">
-        <f>COUNTIF(K9:K66,"Out of Scope")</f>
+        <f>COUNTIF(K9:K67,"Out of Scope")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="11:12">
-      <c r="K6" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="35">
+      <c r="K6" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="36">
         <f>SUM(L2:L5)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="32" customHeight="1" spans="1:11">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="42" customHeight="1" spans="1:11">
@@ -2260,27 +2290,27 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J9" s="19"/>
-      <c r="K9" s="36" t="s">
-        <v>50</v>
+      <c r="K9" s="37" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:13">
@@ -2293,10 +2323,10 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:11">
       <c r="A11" s="9">
@@ -2305,26 +2335,26 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="H11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="40" t="s">
         <v>54</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="39" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:11">
@@ -2336,23 +2366,23 @@
       <c r="C12" s="9"/>
       <c r="D12" s="13"/>
       <c r="E12" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="40" t="s">
         <v>54</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="39" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:11">
@@ -2364,23 +2394,23 @@
       <c r="C13" s="9"/>
       <c r="D13" s="13"/>
       <c r="E13" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J13" s="19"/>
-      <c r="K13" s="39" t="s">
-        <v>50</v>
+      <c r="K13" s="40" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" ht="42" customHeight="1" spans="1:11">
@@ -2392,23 +2422,23 @@
       <c r="C14" s="9"/>
       <c r="D14" s="13"/>
       <c r="E14" s="19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J14" s="19"/>
-      <c r="K14" s="39" t="s">
-        <v>50</v>
+      <c r="K14" s="40" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:11">
@@ -2420,23 +2450,23 @@
       <c r="C15" s="9"/>
       <c r="D15" s="13"/>
       <c r="E15" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J15" s="19"/>
-      <c r="K15" s="39" t="s">
-        <v>50</v>
+      <c r="K15" s="40" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" ht="42" customHeight="1" spans="1:11">
@@ -2448,23 +2478,23 @@
       <c r="C16" s="9"/>
       <c r="D16" s="13"/>
       <c r="E16" s="19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J16" s="19"/>
-      <c r="K16" s="39" t="s">
-        <v>30</v>
+      <c r="K16" s="40" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="42" customHeight="1" spans="1:11">
@@ -2476,23 +2506,23 @@
       <c r="C17" s="9"/>
       <c r="D17" s="14"/>
       <c r="E17" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J17" s="19"/>
-      <c r="K17" s="39" t="s">
-        <v>50</v>
+      <c r="K17" s="40" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:11">
@@ -2500,43 +2530,43 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" ht="42" customHeight="1" spans="1:11">
       <c r="A19" s="9">
         <v>9</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="40" t="s">
         <v>54</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="39" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" ht="42" customHeight="1" spans="1:11">
@@ -2548,23 +2578,23 @@
       <c r="C20" s="9"/>
       <c r="D20" s="13"/>
       <c r="E20" s="19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="40" t="s">
         <v>54</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="39" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" ht="42" customHeight="1" spans="1:11">
@@ -2576,23 +2606,23 @@
       <c r="C21" s="9"/>
       <c r="D21" s="14"/>
       <c r="E21" s="19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="40" t="s">
         <v>54</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="39" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="1:11">
@@ -2603,26 +2633,26 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>91</v>
+        <v>57</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="H22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="40" t="s">
         <v>54</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="39" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:11">
@@ -2632,119 +2662,131 @@
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="19" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="H23" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="39" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="24" ht="42" customHeight="1" spans="1:11">
-      <c r="A24" s="9">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" ht="42" customHeight="1" spans="1:11">
+      <c r="A25" s="9">
         <f>SUM(A23+1)</f>
         <v>14</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" ht="42" customHeight="1" spans="1:11">
-      <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="D25" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="E25" s="19" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>91</v>
+        <v>105</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="H25" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="40" t="s">
         <v>54</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="39" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:11">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>91</v>
+        <v>108</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="H26" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="40" t="s">
         <v>54</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="39" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:11">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="J27" s="19"/>
-      <c r="K27" s="39"/>
+      <c r="K27" s="40" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:11">
       <c r="A28" s="9"/>
@@ -2757,7 +2799,7 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="19"/>
-      <c r="K28" s="39"/>
+      <c r="K28" s="40"/>
     </row>
     <row r="29" ht="42" customHeight="1" spans="1:11">
       <c r="A29" s="9"/>
@@ -2770,7 +2812,7 @@
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="19"/>
-      <c r="K29" s="39"/>
+      <c r="K29" s="40"/>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:11">
       <c r="A30" s="9"/>
@@ -2783,7 +2825,7 @@
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="19"/>
-      <c r="K30" s="39"/>
+      <c r="K30" s="40"/>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:11">
       <c r="A31" s="9"/>
@@ -2796,7 +2838,7 @@
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="19"/>
-      <c r="K31" s="39"/>
+      <c r="K31" s="40"/>
     </row>
     <row r="32" ht="42" customHeight="1" spans="1:11">
       <c r="A32" s="9"/>
@@ -2809,7 +2851,7 @@
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="19"/>
-      <c r="K32" s="39"/>
+      <c r="K32" s="40"/>
     </row>
     <row r="33" ht="42" customHeight="1" spans="1:11">
       <c r="A33" s="9"/>
@@ -2822,7 +2864,7 @@
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="19"/>
-      <c r="K33" s="39"/>
+      <c r="K33" s="40"/>
     </row>
     <row r="34" ht="42" customHeight="1" spans="1:11">
       <c r="A34" s="9"/>
@@ -2835,7 +2877,7 @@
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="19"/>
-      <c r="K34" s="39"/>
+      <c r="K34" s="40"/>
     </row>
     <row r="35" ht="42" customHeight="1" spans="1:11">
       <c r="A35" s="9"/>
@@ -2848,7 +2890,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="19"/>
-      <c r="K35" s="39"/>
+      <c r="K35" s="40"/>
     </row>
     <row r="36" ht="42" customHeight="1" spans="1:11">
       <c r="A36" s="9"/>
@@ -2861,7 +2903,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="19"/>
-      <c r="K36" s="39"/>
+      <c r="K36" s="40"/>
     </row>
     <row r="37" ht="42" customHeight="1" spans="1:11">
       <c r="A37" s="9"/>
@@ -2874,7 +2916,7 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="19"/>
-      <c r="K37" s="39"/>
+      <c r="K37" s="40"/>
     </row>
     <row r="38" ht="42" customHeight="1" spans="1:11">
       <c r="A38" s="9"/>
@@ -2887,7 +2929,7 @@
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
       <c r="J38" s="19"/>
-      <c r="K38" s="39"/>
+      <c r="K38" s="40"/>
     </row>
     <row r="39" ht="42" customHeight="1" spans="1:11">
       <c r="A39" s="9"/>
@@ -2900,7 +2942,7 @@
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="19"/>
-      <c r="K39" s="39"/>
+      <c r="K39" s="40"/>
     </row>
     <row r="40" ht="42" customHeight="1" spans="1:11">
       <c r="A40" s="9"/>
@@ -2913,7 +2955,7 @@
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
       <c r="J40" s="19"/>
-      <c r="K40" s="39"/>
+      <c r="K40" s="40"/>
     </row>
     <row r="41" ht="42" customHeight="1" spans="1:11">
       <c r="A41" s="9"/>
@@ -2926,7 +2968,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="19"/>
-      <c r="K41" s="39"/>
+      <c r="K41" s="40"/>
     </row>
     <row r="42" ht="42" customHeight="1" spans="1:11">
       <c r="A42" s="9"/>
@@ -2939,7 +2981,7 @@
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
       <c r="J42" s="19"/>
-      <c r="K42" s="39"/>
+      <c r="K42" s="40"/>
     </row>
     <row r="43" ht="42" customHeight="1" spans="1:11">
       <c r="A43" s="9"/>
@@ -2952,7 +2994,7 @@
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="19"/>
-      <c r="K43" s="39"/>
+      <c r="K43" s="40"/>
     </row>
     <row r="44" ht="42" customHeight="1" spans="1:11">
       <c r="A44" s="9"/>
@@ -2965,7 +3007,7 @@
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
       <c r="J44" s="19"/>
-      <c r="K44" s="39"/>
+      <c r="K44" s="40"/>
     </row>
     <row r="45" ht="42" customHeight="1" spans="1:11">
       <c r="A45" s="9"/>
@@ -2978,7 +3020,7 @@
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="19"/>
-      <c r="K45" s="39"/>
+      <c r="K45" s="40"/>
     </row>
     <row r="46" ht="42" customHeight="1" spans="1:11">
       <c r="A46" s="9"/>
@@ -2991,7 +3033,7 @@
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
       <c r="J46" s="19"/>
-      <c r="K46" s="39"/>
+      <c r="K46" s="40"/>
     </row>
     <row r="47" ht="42" customHeight="1" spans="1:11">
       <c r="A47" s="9"/>
@@ -3004,7 +3046,7 @@
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="19"/>
-      <c r="K47" s="39"/>
+      <c r="K47" s="40"/>
     </row>
     <row r="48" ht="42" customHeight="1" spans="1:11">
       <c r="A48" s="9"/>
@@ -3017,7 +3059,7 @@
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="19"/>
-      <c r="K48" s="39"/>
+      <c r="K48" s="40"/>
     </row>
     <row r="49" ht="42" customHeight="1" spans="1:11">
       <c r="A49" s="9"/>
@@ -3030,7 +3072,7 @@
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="19"/>
-      <c r="K49" s="39"/>
+      <c r="K49" s="40"/>
     </row>
     <row r="50" ht="42" customHeight="1" spans="1:11">
       <c r="A50" s="9"/>
@@ -3043,7 +3085,7 @@
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
       <c r="J50" s="19"/>
-      <c r="K50" s="39"/>
+      <c r="K50" s="40"/>
     </row>
     <row r="51" ht="42" customHeight="1" spans="1:11">
       <c r="A51" s="9"/>
@@ -3056,7 +3098,7 @@
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
       <c r="J51" s="19"/>
-      <c r="K51" s="39"/>
+      <c r="K51" s="40"/>
     </row>
     <row r="52" ht="42" customHeight="1" spans="1:11">
       <c r="A52" s="9"/>
@@ -3069,7 +3111,7 @@
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
       <c r="J52" s="19"/>
-      <c r="K52" s="39"/>
+      <c r="K52" s="40"/>
     </row>
     <row r="53" ht="42" customHeight="1" spans="1:11">
       <c r="A53" s="9"/>
@@ -3082,7 +3124,7 @@
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="J53" s="19"/>
-      <c r="K53" s="39"/>
+      <c r="K53" s="40"/>
     </row>
     <row r="54" ht="42" customHeight="1" spans="1:11">
       <c r="A54" s="9"/>
@@ -3095,7 +3137,7 @@
       <c r="H54" s="16"/>
       <c r="I54" s="16"/>
       <c r="J54" s="19"/>
-      <c r="K54" s="39"/>
+      <c r="K54" s="40"/>
     </row>
     <row r="55" ht="42" customHeight="1" spans="1:11">
       <c r="A55" s="9"/>
@@ -3108,7 +3150,7 @@
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
       <c r="J55" s="19"/>
-      <c r="K55" s="39"/>
+      <c r="K55" s="40"/>
     </row>
     <row r="56" ht="42" customHeight="1" spans="1:11">
       <c r="A56" s="9"/>
@@ -3121,7 +3163,7 @@
       <c r="H56" s="16"/>
       <c r="I56" s="16"/>
       <c r="J56" s="19"/>
-      <c r="K56" s="39"/>
+      <c r="K56" s="40"/>
     </row>
     <row r="57" ht="42" customHeight="1" spans="1:11">
       <c r="A57" s="9"/>
@@ -3134,7 +3176,7 @@
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
       <c r="J57" s="19"/>
-      <c r="K57" s="39"/>
+      <c r="K57" s="40"/>
     </row>
     <row r="58" ht="42" customHeight="1" spans="1:11">
       <c r="A58" s="9"/>
@@ -3147,7 +3189,7 @@
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
       <c r="J58" s="19"/>
-      <c r="K58" s="39"/>
+      <c r="K58" s="40"/>
     </row>
     <row r="59" ht="42" customHeight="1" spans="1:11">
       <c r="A59" s="9"/>
@@ -3160,7 +3202,7 @@
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
       <c r="J59" s="19"/>
-      <c r="K59" s="39"/>
+      <c r="K59" s="40"/>
     </row>
     <row r="60" ht="42" customHeight="1" spans="1:11">
       <c r="A60" s="9"/>
@@ -3173,7 +3215,7 @@
       <c r="H60" s="16"/>
       <c r="I60" s="16"/>
       <c r="J60" s="19"/>
-      <c r="K60" s="39"/>
+      <c r="K60" s="40"/>
     </row>
     <row r="61" ht="42" customHeight="1" spans="1:11">
       <c r="A61" s="9"/>
@@ -3186,7 +3228,7 @@
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
       <c r="J61" s="19"/>
-      <c r="K61" s="39"/>
+      <c r="K61" s="40"/>
     </row>
     <row r="62" ht="42" customHeight="1" spans="1:11">
       <c r="A62" s="9"/>
@@ -3199,7 +3241,7 @@
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
       <c r="J62" s="19"/>
-      <c r="K62" s="39"/>
+      <c r="K62" s="40"/>
     </row>
     <row r="63" ht="42" customHeight="1" spans="1:11">
       <c r="A63" s="9"/>
@@ -3212,7 +3254,7 @@
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
       <c r="J63" s="19"/>
-      <c r="K63" s="39"/>
+      <c r="K63" s="40"/>
     </row>
     <row r="64" ht="42" customHeight="1" spans="1:11">
       <c r="A64" s="9"/>
@@ -3225,7 +3267,7 @@
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
       <c r="J64" s="19"/>
-      <c r="K64" s="39"/>
+      <c r="K64" s="40"/>
     </row>
     <row r="65" ht="42" customHeight="1" spans="1:11">
       <c r="A65" s="9"/>
@@ -3238,7 +3280,7 @@
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
       <c r="J65" s="19"/>
-      <c r="K65" s="39"/>
+      <c r="K65" s="40"/>
     </row>
     <row r="66" ht="42" customHeight="1" spans="1:11">
       <c r="A66" s="9"/>
@@ -3251,10 +3293,23 @@
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
       <c r="J66" s="19"/>
-      <c r="K66" s="39"/>
+      <c r="K66" s="40"/>
+    </row>
+    <row r="67" ht="42" customHeight="1" spans="1:11">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A2:B2"/>
@@ -3263,27 +3318,28 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D11:D17"/>
     <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
   </mergeCells>
-  <conditionalFormatting sqref="K9:K66">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",K9)))</formula>
+  <conditionalFormatting sqref="K9:K67">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="Not Executed">
+      <formula>NOT(ISERROR(SEARCH("Not Executed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="between" text="Failed">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="Failed">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="between" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="Failed">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="between" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="between" text="Not Executed">
-      <formula>NOT(ISERROR(SEARCH("Not Executed",K9)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="between" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K24 K9:K23 K25:K67">
       <formula1>"Failed,Not Executed,Out of Scope,Passed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Nipro-Dialysis.xlsx
+++ b/Nipro-Dialysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14540" activeTab="1"/>
+    <workbookView windowWidth="16960" windowHeight="14540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenarios" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="137">
   <si>
     <t>Project Name</t>
   </si>
@@ -399,6 +399,107 @@
   </si>
   <si>
     <t>Should be same sideber full application</t>
+  </si>
+  <si>
+    <t>Checking click the Registration Button</t>
+  </si>
+  <si>
+    <t>Should be open  Patient, Doctor, Referral</t>
+  </si>
+  <si>
+    <t>Found as per expectation</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click Registration Button</t>
+  </si>
+  <si>
+    <t>Checking Patient Option</t>
+  </si>
+  <si>
+    <t>Should be open Patient List Page</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click Registration Button
+4.Click Patient option</t>
+  </si>
+  <si>
+    <t>Checking Doctor Option</t>
+  </si>
+  <si>
+    <t>Should be open Doctor List Page</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click Registration Button
+4.Click Doctor option</t>
+  </si>
+  <si>
+    <t>Checking Referral Option</t>
+  </si>
+  <si>
+    <t>Should be open Referral List Page</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click Referral Button</t>
+  </si>
+  <si>
+    <t>Checking click Appoinment Button</t>
+  </si>
+  <si>
+    <t>Should be open Dialysis, Doctor option</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+4. Click Appoinment Button</t>
+  </si>
+  <si>
+    <t>Checking click SMS Button</t>
+  </si>
+  <si>
+    <t>Should be open SMS log</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click SMS Button</t>
+  </si>
+  <si>
+    <t>Checking click Report Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be open Sakes,Monthly,Referral Report </t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click Report Button</t>
+  </si>
+  <si>
+    <t>Checking Click Logout Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be log out </t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click Logout Button</t>
   </si>
 </sst>
 </file>
@@ -406,8 +507,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -495,8 +596,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,8 +618,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,62 +716,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,43 +730,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="43">
     <fill>
@@ -699,187 +800,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,17 +1177,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,7 +1190,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,6 +1225,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1148,28 +1254,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,142 +1279,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1323,7 +1424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,6 +1470,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="48" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1381,12 +1491,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -1411,6 +1515,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1444,9 +1554,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1485,9 +1592,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -1883,221 +1987,221 @@
   <sheetData>
     <row r="1" ht="15.5" customHeight="1"/>
     <row r="2" ht="26.5" customHeight="1" spans="1:5">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" ht="26.5" customHeight="1" spans="1:5">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:5">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
     </row>
     <row r="5" ht="26.5" customHeight="1" spans="1:5">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:5">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" ht="14.75" spans="1:5">
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:5">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="53" t="s">
+    <row r="9" ht="14.75" spans="1:5">
+      <c r="A9" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:5">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="57" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="57">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
+    <row r="11" ht="14.75" spans="1:5">
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="57" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="57">
         <v>3</v>
       </c>
     </row>
     <row r="13" ht="14.75" spans="1:5">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="57" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="57">
         <v>3</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1" spans="1:5">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="57" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="57">
         <v>3</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:5">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="56"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:5">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="56"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:5">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="56"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="57"/>
     </row>
     <row r="18" ht="23" customHeight="1" spans="1:5">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="56"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="57"/>
     </row>
     <row r="19" ht="22" customHeight="1" spans="1:5">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="56"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:5">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="56"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="57"/>
     </row>
     <row r="21" ht="22" customHeight="1" spans="1:5">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="56"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:5">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="56"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" ht="22" customHeight="1" spans="1:5">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="56"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" ht="22" customHeight="1" spans="1:5">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="56"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2118,12 +2222,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19:D21"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2155,10 +2259,10 @@
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -2172,12 +2276,12 @@
       <c r="E2" s="5"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="34" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="5">
-        <f>COUNTIF(K9:K67,"Passed")</f>
-        <v>15</v>
+        <f>COUNTIF(K9:K70,"Passed")</f>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2189,18 +2293,18 @@
       <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L3" s="5">
-        <f>COUNTIF(K9:K67,"Failed")</f>
+        <f>COUNTIF(K9:K70,"Failed")</f>
         <v>1</v>
       </c>
     </row>
@@ -2216,11 +2320,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="36" t="s">
         <v>34</v>
       </c>
       <c r="L4" s="5">
-        <f>COUNTIF(K9:K67,"Not Executed")</f>
+        <f>COUNTIF(K9:K70,"Not Executed")</f>
         <v>1</v>
       </c>
     </row>
@@ -2232,21 +2336,21 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="37" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="5">
-        <f>COUNTIF(K9:K67,"Out of Scope")</f>
+        <f>COUNTIF(K9:K70,"Out of Scope")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="11:12">
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="39">
         <f>SUM(L2:L5)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="32" customHeight="1" spans="1:11">
@@ -2293,23 +2397,23 @@
         <v>48</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="37" t="s">
+      <c r="J9" s="10"/>
+      <c r="K9" s="40" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2318,15 +2422,15 @@
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:11">
       <c r="A11" s="9">
@@ -2337,169 +2441,169 @@
       <c r="D11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="19"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="40" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:11">
       <c r="A12" s="9">
-        <f>SUM(A11+1)</f>
+        <f t="shared" ref="A12:A17" si="0">SUM(A11+1)</f>
         <v>3</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="19"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="40" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:11">
       <c r="A13" s="9">
-        <f>SUM(A12+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="19"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="40" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" ht="42" customHeight="1" spans="1:11">
       <c r="A14" s="9">
-        <f>SUM(A13+1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="19"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="40" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:11">
       <c r="A15" s="9">
-        <f>SUM(A14+1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="19"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="40" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" ht="42" customHeight="1" spans="1:11">
       <c r="A16" s="9">
-        <f>SUM(A15+1)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="19"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" ht="42" customHeight="1" spans="1:11">
       <c r="A17" s="9">
-        <f>SUM(A16+1)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B17" s="9"/>
@@ -2508,19 +2612,19 @@
       <c r="E17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="19"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="40" t="s">
         <v>54</v>
       </c>
@@ -2530,13 +2634,13 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" ht="42" customHeight="1" spans="1:11">
       <c r="A19" s="9">
@@ -2549,22 +2653,22 @@
       <c r="D19" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="J19" s="19"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="40" t="s">
         <v>54</v>
       </c>
@@ -2577,22 +2681,22 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="10" t="s">
         <v>51</v>
       </c>
       <c r="H20" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="J20" s="19"/>
+      <c r="J20" s="10"/>
       <c r="K20" s="40" t="s">
         <v>54</v>
       </c>
@@ -2605,22 +2709,22 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="19"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="40" t="s">
         <v>54</v>
       </c>
@@ -2635,22 +2739,22 @@
       <c r="D22" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="J22" s="19"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="40" t="s">
         <v>54</v>
       </c>
@@ -2663,22 +2767,22 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="J23" s="19"/>
+      <c r="J23" s="10"/>
       <c r="K23" s="40" t="s">
         <v>54</v>
       </c>
@@ -2688,22 +2792,22 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="J24" s="19"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="40" t="s">
         <v>102</v>
       </c>
@@ -2715,25 +2819,25 @@
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="J25" s="19"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="40" t="s">
         <v>54</v>
       </c>
@@ -2742,23 +2846,23 @@
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="19" t="s">
+      <c r="D26" s="16"/>
+      <c r="E26" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="J26" s="19"/>
+      <c r="J26" s="10"/>
       <c r="K26" s="40" t="s">
         <v>54</v>
       </c>
@@ -2767,23 +2871,23 @@
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="19" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="19"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="40" t="s">
         <v>54</v>
       </c>
@@ -2792,117 +2896,211 @@
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="40"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="40" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" ht="42" customHeight="1" spans="1:11">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="40"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="40" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:11">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="40"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="40" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:11">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="40"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="31"/>
+      <c r="I31" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="40" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" ht="42" customHeight="1" spans="1:11">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="40"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="40" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" ht="42" customHeight="1" spans="1:11">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="40"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="40" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="34" ht="42" customHeight="1" spans="1:11">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="40"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="40" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="35" ht="42" customHeight="1" spans="1:11">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="40"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="40" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="36" ht="42" customHeight="1" spans="1:11">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="19"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="10"/>
       <c r="K36" s="40"/>
     </row>
     <row r="37" ht="42" customHeight="1" spans="1:11">
@@ -2910,12 +3108,12 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="19"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="10"/>
       <c r="K37" s="40"/>
     </row>
     <row r="38" ht="42" customHeight="1" spans="1:11">
@@ -2923,12 +3121,12 @@
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="19"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="10"/>
       <c r="K38" s="40"/>
     </row>
     <row r="39" ht="42" customHeight="1" spans="1:11">
@@ -2936,12 +3134,12 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="19"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="10"/>
       <c r="K39" s="40"/>
     </row>
     <row r="40" ht="42" customHeight="1" spans="1:11">
@@ -2949,12 +3147,12 @@
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="19"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="10"/>
       <c r="K40" s="40"/>
     </row>
     <row r="41" ht="42" customHeight="1" spans="1:11">
@@ -2962,12 +3160,12 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="19"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="10"/>
       <c r="K41" s="40"/>
     </row>
     <row r="42" ht="42" customHeight="1" spans="1:11">
@@ -2975,12 +3173,12 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="19"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="10"/>
       <c r="K42" s="40"/>
     </row>
     <row r="43" ht="42" customHeight="1" spans="1:11">
@@ -2988,12 +3186,12 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="19"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="10"/>
       <c r="K43" s="40"/>
     </row>
     <row r="44" ht="42" customHeight="1" spans="1:11">
@@ -3001,12 +3199,12 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="19"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="10"/>
       <c r="K44" s="40"/>
     </row>
     <row r="45" ht="42" customHeight="1" spans="1:11">
@@ -3014,12 +3212,12 @@
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="19"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="10"/>
       <c r="K45" s="40"/>
     </row>
     <row r="46" ht="42" customHeight="1" spans="1:11">
@@ -3027,12 +3225,12 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="19"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="10"/>
       <c r="K46" s="40"/>
     </row>
     <row r="47" ht="42" customHeight="1" spans="1:11">
@@ -3040,12 +3238,12 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="19"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="10"/>
       <c r="K47" s="40"/>
     </row>
     <row r="48" ht="42" customHeight="1" spans="1:11">
@@ -3053,12 +3251,12 @@
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="19"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="10"/>
       <c r="K48" s="40"/>
     </row>
     <row r="49" ht="42" customHeight="1" spans="1:11">
@@ -3066,12 +3264,12 @@
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="19"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="10"/>
       <c r="K49" s="40"/>
     </row>
     <row r="50" ht="42" customHeight="1" spans="1:11">
@@ -3079,12 +3277,12 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="19"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="10"/>
       <c r="K50" s="40"/>
     </row>
     <row r="51" ht="42" customHeight="1" spans="1:11">
@@ -3092,12 +3290,12 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="19"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="10"/>
       <c r="K51" s="40"/>
     </row>
     <row r="52" ht="42" customHeight="1" spans="1:11">
@@ -3105,12 +3303,12 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="19"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="10"/>
       <c r="K52" s="40"/>
     </row>
     <row r="53" ht="42" customHeight="1" spans="1:11">
@@ -3118,12 +3316,12 @@
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="19"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="10"/>
       <c r="K53" s="40"/>
     </row>
     <row r="54" ht="42" customHeight="1" spans="1:11">
@@ -3131,12 +3329,12 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="19"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="10"/>
       <c r="K54" s="40"/>
     </row>
     <row r="55" ht="42" customHeight="1" spans="1:11">
@@ -3144,12 +3342,12 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="19"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="10"/>
       <c r="K55" s="40"/>
     </row>
     <row r="56" ht="42" customHeight="1" spans="1:11">
@@ -3157,12 +3355,12 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="19"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="10"/>
       <c r="K56" s="40"/>
     </row>
     <row r="57" ht="42" customHeight="1" spans="1:11">
@@ -3170,12 +3368,12 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="19"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="10"/>
       <c r="K57" s="40"/>
     </row>
     <row r="58" ht="42" customHeight="1" spans="1:11">
@@ -3183,12 +3381,12 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="19"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="10"/>
       <c r="K58" s="40"/>
     </row>
     <row r="59" ht="42" customHeight="1" spans="1:11">
@@ -3196,12 +3394,12 @@
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="19"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="10"/>
       <c r="K59" s="40"/>
     </row>
     <row r="60" ht="42" customHeight="1" spans="1:11">
@@ -3209,12 +3407,12 @@
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="19"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="10"/>
       <c r="K60" s="40"/>
     </row>
     <row r="61" ht="42" customHeight="1" spans="1:11">
@@ -3222,12 +3420,12 @@
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="19"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="10"/>
       <c r="K61" s="40"/>
     </row>
     <row r="62" ht="42" customHeight="1" spans="1:11">
@@ -3235,12 +3433,12 @@
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="19"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="10"/>
       <c r="K62" s="40"/>
     </row>
     <row r="63" ht="42" customHeight="1" spans="1:11">
@@ -3248,12 +3446,12 @@
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="19"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="10"/>
       <c r="K63" s="40"/>
     </row>
     <row r="64" ht="42" customHeight="1" spans="1:11">
@@ -3261,12 +3459,12 @@
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="19"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="10"/>
       <c r="K64" s="40"/>
     </row>
     <row r="65" ht="42" customHeight="1" spans="1:11">
@@ -3274,12 +3472,12 @@
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="19"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="10"/>
       <c r="K65" s="40"/>
     </row>
     <row r="66" ht="42" customHeight="1" spans="1:11">
@@ -3287,12 +3485,12 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="19"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="10"/>
       <c r="K66" s="40"/>
     </row>
     <row r="67" ht="42" customHeight="1" spans="1:11">
@@ -3300,13 +3498,52 @@
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="19"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="10"/>
       <c r="K67" s="40"/>
+    </row>
+    <row r="68" ht="42" customHeight="1" spans="1:11">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="40"/>
+    </row>
+    <row r="69" ht="42" customHeight="1" spans="1:11">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="40"/>
+    </row>
+    <row r="70" ht="42" customHeight="1" spans="1:11">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3319,9 +3556,9 @@
     <mergeCell ref="D11:D17"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D25:D35"/>
   </mergeCells>
-  <conditionalFormatting sqref="K9:K67">
+  <conditionalFormatting sqref="K9:K70">
     <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="Not Executed">
       <formula>NOT(ISERROR(SEARCH("Not Executed",K9)))</formula>
     </cfRule>
@@ -3339,7 +3576,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K24 K9:K23 K25:K67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K24 K9:K23 K25:K28 K29:K31 K32:K70">
       <formula1>"Failed,Not Executed,Out of Scope,Passed"</formula1>
     </dataValidation>
   </dataValidations>
